--- a/InterfaceDescription/input/chassis-template.xlsx
+++ b/InterfaceDescription/input/chassis-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://warnermedia-my.sharepoint.com/personal/fred_renner_warnermedia_com/Documents/net-programming/InterfaceDescription/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{0DF62647-9A1B-43C4-8CF3-7534FA3E7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE006C57-DC0A-7D45-A4DC-C49197996D4F}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{0DF62647-9A1B-43C4-8CF3-7534FA3E7A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E0F6F0-8B44-4548-A113-F8B04B40B997}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="3800" windowWidth="27740" windowHeight="14920" activeTab="1" xr2:uid="{F893E5FB-95BF-492E-B6DC-7091F11C81B7}"/>
+    <workbookView xWindow="2660" yWindow="2020" windowWidth="27740" windowHeight="14920" activeTab="1" xr2:uid="{F893E5FB-95BF-492E-B6DC-7091F11C81B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2.1" sheetId="1" r:id="rId1"/>
